--- a/Data/Last Mile Rates (no api).xlsx
+++ b/Data/Last Mile Rates (no api).xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE4261C-A104-46F5-98D6-1FF0C3A2EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1508D6AE-0459-4FF3-BCED-F2B377D3F1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{092089B2-8674-482C-97E7-5C8C072E36B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Last Mile Rates (no api)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Last Mile Rates (no api)'!$A$1:$O$208</definedName>
   </definedNames>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="71">
   <si>
     <t>Origin Type</t>
   </si>
@@ -246,6 +243,12 @@
   </si>
   <si>
     <t>Carrier Name</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
 </sst>
 </file>
@@ -794,352 +797,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="FBA Locations"/>
-      <sheetName val="P2P"/>
-      <sheetName val="Accessorials"/>
-      <sheetName val="Palletization"/>
-      <sheetName val="Caluculations"/>
-      <sheetName val="Reference"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>FPOD CITY</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>FPOD UNLOC</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>FPOD STATE CODE</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>USNYC</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Oakland</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>USOAK</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>CA</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Los Angeles</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>USLAX</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>CA</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>USNYC</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Port Everglades</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>USPEF</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>FL</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>USNYC</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>USNYC</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Charleston</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>USCHS</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>SC</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Charleston</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>USCHS</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>SC</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Los Angeles</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>USLAX</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>CA</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>USNYC</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>USNYC</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>Port Everglades</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>USPEF</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>FL</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>Charleston</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>USCHS</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>SC</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>USNYC</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>USNYC</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>USNYC</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>Los Angeles</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>USLAX</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>CA</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>Charleston</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>USCHS</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>SC</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>Charleston</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>USCHS</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>SC</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>USNYC</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Charleston</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>USCHS</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>SC</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>Houston</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>USHOU</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>TX</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>Charleston</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>USCHS</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>SC</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>Los Angeles</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>USLAX</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>CA</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>New York</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>USNYC</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>NJ</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>Charleston</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>USCHS</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>SC</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>Chicago</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>USCHI</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>IL</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1459,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10451EBB-E7E6-48DF-A4E4-B1A4C8B491EA}">
   <dimension ref="A1:O208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,9 +1195,8 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(B2,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D2" t="s">
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
@@ -1583,9 +1239,8 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(B3,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D3" t="s">
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
@@ -1628,9 +1283,8 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(B4,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D4" t="s">
+        <v>69</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -1673,9 +1327,8 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(B5,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D5" t="s">
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1718,9 +1371,8 @@
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(B6,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D6" t="s">
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -1763,9 +1415,8 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(B7,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D7" t="s">
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -1808,9 +1459,8 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(B8,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D8" t="s">
+        <v>69</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1853,9 +1503,8 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(B9,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D9" t="s">
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -1898,9 +1547,8 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(B10,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D10" t="s">
+        <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -1943,9 +1591,8 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(B11,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D11" t="s">
+        <v>69</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -1988,9 +1635,8 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(B12,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D12" t="s">
+        <v>69</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -2033,9 +1679,8 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(B13,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D13" t="s">
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -2078,9 +1723,8 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(B14,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D14" t="s">
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -2123,9 +1767,8 @@
       <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(B15,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D15" t="s">
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -2168,9 +1811,8 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="str">
-        <f>VLOOKUP(B16,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D16" t="s">
+        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
@@ -2213,9 +1855,8 @@
       <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(B17,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D17" t="s">
+        <v>69</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -2258,9 +1899,8 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(B18,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D18" t="s">
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
@@ -2303,9 +1943,8 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(B19,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D19" t="s">
+        <v>69</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -2348,9 +1987,8 @@
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="str">
-        <f>VLOOKUP(B20,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D20" t="s">
+        <v>69</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -2393,9 +2031,8 @@
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="str">
-        <f>VLOOKUP(B21,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D21" t="s">
+        <v>69</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
@@ -2438,9 +2075,8 @@
       <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="str">
-        <f>VLOOKUP(B22,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D22" t="s">
+        <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -2483,9 +2119,8 @@
       <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="str">
-        <f>VLOOKUP(B23,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D23" t="s">
+        <v>69</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
@@ -2528,9 +2163,8 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="str">
-        <f>VLOOKUP(B24,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D24" t="s">
+        <v>69</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
@@ -2573,9 +2207,8 @@
       <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="D25" t="str">
-        <f>VLOOKUP(B25,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D25" t="s">
+        <v>69</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -2618,9 +2251,8 @@
       <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="D26" t="str">
-        <f>VLOOKUP(B26,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D26" t="s">
+        <v>69</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
@@ -2663,9 +2295,8 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" t="str">
-        <f>VLOOKUP(B27,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D27" t="s">
+        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
@@ -2708,9 +2339,8 @@
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="str">
-        <f>VLOOKUP(B28,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D28" t="s">
+        <v>69</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
@@ -2750,9 +2380,8 @@
       <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" t="str">
-        <f>VLOOKUP(B29,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D29" t="s">
+        <v>69</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -2792,9 +2421,8 @@
       <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" t="str">
-        <f>VLOOKUP(B30,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D30" t="s">
+        <v>69</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
@@ -2834,9 +2462,8 @@
       <c r="C31" t="s">
         <v>26</v>
       </c>
-      <c r="D31" t="str">
-        <f>VLOOKUP(B31,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D31" t="s">
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -2879,9 +2506,8 @@
       <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="D32" t="str">
-        <f>VLOOKUP(B32,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D32" t="s">
+        <v>69</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
@@ -2924,9 +2550,8 @@
       <c r="C33" t="s">
         <v>26</v>
       </c>
-      <c r="D33" t="str">
-        <f>VLOOKUP(B33,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D33" t="s">
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
@@ -2969,9 +2594,8 @@
       <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="D34" t="str">
-        <f>VLOOKUP(B34,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D34" t="s">
+        <v>69</v>
       </c>
       <c r="E34" t="s">
         <v>33</v>
@@ -3014,9 +2638,8 @@
       <c r="C35" t="s">
         <v>26</v>
       </c>
-      <c r="D35" t="str">
-        <f>VLOOKUP(B35,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D35" t="s">
+        <v>69</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
@@ -3059,9 +2682,8 @@
       <c r="C36" t="s">
         <v>26</v>
       </c>
-      <c r="D36" t="str">
-        <f>VLOOKUP(B36,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D36" t="s">
+        <v>69</v>
       </c>
       <c r="E36" t="s">
         <v>33</v>
@@ -3104,9 +2726,8 @@
       <c r="C37" t="s">
         <v>26</v>
       </c>
-      <c r="D37" t="str">
-        <f>VLOOKUP(B37,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D37" t="s">
+        <v>69</v>
       </c>
       <c r="E37" t="s">
         <v>33</v>
@@ -3149,9 +2770,8 @@
       <c r="C38" t="s">
         <v>26</v>
       </c>
-      <c r="D38" t="str">
-        <f>VLOOKUP(B38,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D38" t="s">
+        <v>69</v>
       </c>
       <c r="E38" t="s">
         <v>33</v>
@@ -3194,9 +2814,8 @@
       <c r="C39" t="s">
         <v>26</v>
       </c>
-      <c r="D39" t="str">
-        <f>VLOOKUP(B39,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D39" t="s">
+        <v>69</v>
       </c>
       <c r="E39" t="s">
         <v>33</v>
@@ -3239,9 +2858,8 @@
       <c r="C40" t="s">
         <v>26</v>
       </c>
-      <c r="D40" t="str">
-        <f>VLOOKUP(B40,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D40" t="s">
+        <v>69</v>
       </c>
       <c r="E40" t="s">
         <v>33</v>
@@ -3284,9 +2902,8 @@
       <c r="C41" t="s">
         <v>26</v>
       </c>
-      <c r="D41" t="str">
-        <f>VLOOKUP(B41,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D41" t="s">
+        <v>69</v>
       </c>
       <c r="E41" t="s">
         <v>33</v>
@@ -3329,9 +2946,8 @@
       <c r="C42" t="s">
         <v>26</v>
       </c>
-      <c r="D42" t="str">
-        <f>VLOOKUP(B42,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D42" t="s">
+        <v>69</v>
       </c>
       <c r="E42" t="s">
         <v>33</v>
@@ -3374,9 +2990,8 @@
       <c r="C43" t="s">
         <v>26</v>
       </c>
-      <c r="D43" t="str">
-        <f>VLOOKUP(B43,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D43" t="s">
+        <v>69</v>
       </c>
       <c r="E43" t="s">
         <v>33</v>
@@ -3419,9 +3034,8 @@
       <c r="C44" t="s">
         <v>26</v>
       </c>
-      <c r="D44" t="str">
-        <f>VLOOKUP(B44,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D44" t="s">
+        <v>69</v>
       </c>
       <c r="E44" t="s">
         <v>33</v>
@@ -3464,9 +3078,8 @@
       <c r="C45" t="s">
         <v>26</v>
       </c>
-      <c r="D45" t="str">
-        <f>VLOOKUP(B45,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D45" t="s">
+        <v>69</v>
       </c>
       <c r="E45" t="s">
         <v>33</v>
@@ -3509,9 +3122,8 @@
       <c r="C46" t="s">
         <v>26</v>
       </c>
-      <c r="D46" t="str">
-        <f>VLOOKUP(B46,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D46" t="s">
+        <v>69</v>
       </c>
       <c r="E46" t="s">
         <v>33</v>
@@ -3554,9 +3166,8 @@
       <c r="C47" t="s">
         <v>26</v>
       </c>
-      <c r="D47" t="str">
-        <f>VLOOKUP(B47,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D47" t="s">
+        <v>69</v>
       </c>
       <c r="E47" t="s">
         <v>33</v>
@@ -3599,9 +3210,8 @@
       <c r="C48" t="s">
         <v>26</v>
       </c>
-      <c r="D48" t="str">
-        <f>VLOOKUP(B48,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D48" t="s">
+        <v>69</v>
       </c>
       <c r="E48" t="s">
         <v>33</v>
@@ -3644,9 +3254,8 @@
       <c r="C49" t="s">
         <v>26</v>
       </c>
-      <c r="D49" t="str">
-        <f>VLOOKUP(B49,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D49" t="s">
+        <v>69</v>
       </c>
       <c r="E49" t="s">
         <v>33</v>
@@ -3689,9 +3298,8 @@
       <c r="C50" t="s">
         <v>26</v>
       </c>
-      <c r="D50" t="str">
-        <f>VLOOKUP(B50,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D50" t="s">
+        <v>69</v>
       </c>
       <c r="E50" t="s">
         <v>33</v>
@@ -3734,9 +3342,8 @@
       <c r="C51" t="s">
         <v>26</v>
       </c>
-      <c r="D51" t="str">
-        <f>VLOOKUP(B51,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D51" t="s">
+        <v>69</v>
       </c>
       <c r="E51" t="s">
         <v>33</v>
@@ -3779,9 +3386,8 @@
       <c r="C52" t="s">
         <v>26</v>
       </c>
-      <c r="D52" t="str">
-        <f>VLOOKUP(B52,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D52" t="s">
+        <v>69</v>
       </c>
       <c r="E52" t="s">
         <v>33</v>
@@ -3824,9 +3430,8 @@
       <c r="C53" t="s">
         <v>26</v>
       </c>
-      <c r="D53" t="str">
-        <f>VLOOKUP(B53,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D53" t="s">
+        <v>69</v>
       </c>
       <c r="E53" t="s">
         <v>33</v>
@@ -3869,9 +3474,8 @@
       <c r="C54" t="s">
         <v>26</v>
       </c>
-      <c r="D54" t="str">
-        <f>VLOOKUP(B54,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D54" t="s">
+        <v>69</v>
       </c>
       <c r="E54" t="s">
         <v>33</v>
@@ -3914,9 +3518,8 @@
       <c r="C55" t="s">
         <v>26</v>
       </c>
-      <c r="D55" t="str">
-        <f>VLOOKUP(B55,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D55" t="s">
+        <v>69</v>
       </c>
       <c r="E55" t="s">
         <v>33</v>
@@ -3959,9 +3562,8 @@
       <c r="C56" t="s">
         <v>26</v>
       </c>
-      <c r="D56" t="str">
-        <f>VLOOKUP(B56,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D56" t="s">
+        <v>69</v>
       </c>
       <c r="E56" t="s">
         <v>33</v>
@@ -4004,9 +3606,8 @@
       <c r="C57" t="s">
         <v>26</v>
       </c>
-      <c r="D57" t="str">
-        <f>VLOOKUP(B57,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D57" t="s">
+        <v>69</v>
       </c>
       <c r="E57" t="s">
         <v>33</v>
@@ -4046,9 +3647,8 @@
       <c r="C58" t="s">
         <v>27</v>
       </c>
-      <c r="D58" t="str">
-        <f>VLOOKUP(B58,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D58" t="s">
+        <v>70</v>
       </c>
       <c r="E58" t="s">
         <v>34</v>
@@ -4088,9 +3688,8 @@
       <c r="C59" t="s">
         <v>26</v>
       </c>
-      <c r="D59" t="str">
-        <f>VLOOKUP(B59,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D59" t="s">
+        <v>69</v>
       </c>
       <c r="E59" t="s">
         <v>33</v>
@@ -4130,9 +3729,8 @@
       <c r="C60" t="s">
         <v>26</v>
       </c>
-      <c r="D60" t="str">
-        <f>VLOOKUP(B60,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D60" t="s">
+        <v>69</v>
       </c>
       <c r="E60" t="s">
         <v>33</v>
@@ -4172,9 +3770,8 @@
       <c r="C61" t="s">
         <v>27</v>
       </c>
-      <c r="D61" t="str">
-        <f>VLOOKUP(B61,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D61" t="s">
+        <v>70</v>
       </c>
       <c r="E61" t="s">
         <v>34</v>
@@ -4214,9 +3811,8 @@
       <c r="C62" t="s">
         <v>27</v>
       </c>
-      <c r="D62" t="str">
-        <f>VLOOKUP(B62,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D62" t="s">
+        <v>70</v>
       </c>
       <c r="E62" t="s">
         <v>34</v>
@@ -4256,9 +3852,8 @@
       <c r="C63" t="s">
         <v>27</v>
       </c>
-      <c r="D63" t="str">
-        <f>VLOOKUP(B63,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D63" t="s">
+        <v>70</v>
       </c>
       <c r="E63" t="s">
         <v>34</v>
@@ -4298,9 +3893,8 @@
       <c r="C64" t="s">
         <v>27</v>
       </c>
-      <c r="D64" t="str">
-        <f>VLOOKUP(B64,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D64" t="s">
+        <v>70</v>
       </c>
       <c r="E64" t="s">
         <v>34</v>
@@ -4340,9 +3934,8 @@
       <c r="C65" t="s">
         <v>27</v>
       </c>
-      <c r="D65" t="str">
-        <f>VLOOKUP(B65,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D65" t="s">
+        <v>70</v>
       </c>
       <c r="E65" t="s">
         <v>34</v>
@@ -4382,9 +3975,8 @@
       <c r="C66" t="s">
         <v>27</v>
       </c>
-      <c r="D66" t="str">
-        <f>VLOOKUP(B66,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D66" t="s">
+        <v>70</v>
       </c>
       <c r="E66" t="s">
         <v>34</v>
@@ -4424,9 +4016,8 @@
       <c r="C67" t="s">
         <v>27</v>
       </c>
-      <c r="D67" t="str">
-        <f>VLOOKUP(B67,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D67" t="s">
+        <v>70</v>
       </c>
       <c r="E67" t="s">
         <v>34</v>
@@ -4466,9 +4057,8 @@
       <c r="C68" t="s">
         <v>27</v>
       </c>
-      <c r="D68" t="str">
-        <f>VLOOKUP(B68,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D68" t="s">
+        <v>70</v>
       </c>
       <c r="E68" t="s">
         <v>34</v>
@@ -4508,9 +4098,8 @@
       <c r="C69" t="s">
         <v>26</v>
       </c>
-      <c r="D69" t="str">
-        <f>VLOOKUP(B69,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D69" t="s">
+        <v>69</v>
       </c>
       <c r="E69" t="s">
         <v>33</v>
@@ -4550,9 +4139,8 @@
       <c r="C70" t="s">
         <v>28</v>
       </c>
-      <c r="D70" t="str">
-        <f>VLOOKUP(B70,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D70" t="s">
+        <v>18</v>
       </c>
       <c r="E70" t="s">
         <v>35</v>
@@ -4592,9 +4180,8 @@
       <c r="C71" t="s">
         <v>26</v>
       </c>
-      <c r="D71" t="str">
-        <f>VLOOKUP(B71,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D71" t="s">
+        <v>69</v>
       </c>
       <c r="E71" t="s">
         <v>33</v>
@@ -4634,9 +4221,8 @@
       <c r="C72" t="s">
         <v>27</v>
       </c>
-      <c r="D72" t="str">
-        <f>VLOOKUP(B72,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D72" t="s">
+        <v>70</v>
       </c>
       <c r="E72" t="s">
         <v>34</v>
@@ -4676,9 +4262,8 @@
       <c r="C73" t="s">
         <v>26</v>
       </c>
-      <c r="D73" t="str">
-        <f>VLOOKUP(B73,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D73" t="s">
+        <v>69</v>
       </c>
       <c r="E73" t="s">
         <v>33</v>
@@ -4718,9 +4303,8 @@
       <c r="C74" t="s">
         <v>26</v>
       </c>
-      <c r="D74" t="str">
-        <f>VLOOKUP(B74,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D74" t="s">
+        <v>69</v>
       </c>
       <c r="E74" t="s">
         <v>33</v>
@@ -4760,9 +4344,8 @@
       <c r="C75" t="s">
         <v>26</v>
       </c>
-      <c r="D75" t="str">
-        <f>VLOOKUP(B75,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D75" t="s">
+        <v>69</v>
       </c>
       <c r="E75" t="s">
         <v>33</v>
@@ -4802,9 +4385,8 @@
       <c r="C76" t="s">
         <v>26</v>
       </c>
-      <c r="D76" t="str">
-        <f>VLOOKUP(B76,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D76" t="s">
+        <v>69</v>
       </c>
       <c r="E76" t="s">
         <v>33</v>
@@ -4844,9 +4426,8 @@
       <c r="C77" t="s">
         <v>28</v>
       </c>
-      <c r="D77" t="str">
-        <f>VLOOKUP(B77,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D77" t="s">
+        <v>18</v>
       </c>
       <c r="E77" t="s">
         <v>35</v>
@@ -4886,9 +4467,8 @@
       <c r="C78" t="s">
         <v>29</v>
       </c>
-      <c r="D78" t="str">
-        <f>VLOOKUP(B78,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D78" t="s">
+        <v>18</v>
       </c>
       <c r="E78" t="s">
         <v>34</v>
@@ -4928,9 +4508,8 @@
       <c r="C79" t="s">
         <v>29</v>
       </c>
-      <c r="D79" t="str">
-        <f>VLOOKUP(B79,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D79" t="s">
+        <v>18</v>
       </c>
       <c r="E79" t="s">
         <v>34</v>
@@ -4970,9 +4549,8 @@
       <c r="C80" t="s">
         <v>29</v>
       </c>
-      <c r="D80" t="str">
-        <f>VLOOKUP(B80,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D80" t="s">
+        <v>18</v>
       </c>
       <c r="E80" t="s">
         <v>34</v>
@@ -5012,9 +4590,8 @@
       <c r="C81" t="s">
         <v>26</v>
       </c>
-      <c r="D81" t="str">
-        <f>VLOOKUP(B81,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D81" t="s">
+        <v>69</v>
       </c>
       <c r="E81" t="s">
         <v>33</v>
@@ -5054,9 +4631,8 @@
       <c r="C82" t="s">
         <v>26</v>
       </c>
-      <c r="D82" t="str">
-        <f>VLOOKUP(B82,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D82" t="s">
+        <v>69</v>
       </c>
       <c r="E82" t="s">
         <v>33</v>
@@ -5096,9 +4672,8 @@
       <c r="C83" t="s">
         <v>26</v>
       </c>
-      <c r="D83" t="str">
-        <f>VLOOKUP(B83,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D83" t="s">
+        <v>69</v>
       </c>
       <c r="E83" t="s">
         <v>33</v>
@@ -5138,9 +4713,8 @@
       <c r="C84" t="s">
         <v>26</v>
       </c>
-      <c r="D84" t="str">
-        <f>VLOOKUP(B84,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D84" t="s">
+        <v>69</v>
       </c>
       <c r="E84" t="s">
         <v>33</v>
@@ -5180,9 +4754,8 @@
       <c r="C85" t="s">
         <v>30</v>
       </c>
-      <c r="D85" t="str">
-        <f>VLOOKUP(B85,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>FL</v>
+      <c r="D85" t="s">
+        <v>19</v>
       </c>
       <c r="E85" t="s">
         <v>35</v>
@@ -5222,9 +4795,8 @@
       <c r="C86" t="s">
         <v>30</v>
       </c>
-      <c r="D86" t="str">
-        <f>VLOOKUP(B86,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>FL</v>
+      <c r="D86" t="s">
+        <v>19</v>
       </c>
       <c r="E86" t="s">
         <v>35</v>
@@ -5264,9 +4836,8 @@
       <c r="C87" t="s">
         <v>29</v>
       </c>
-      <c r="D87" t="str">
-        <f>VLOOKUP(B87,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D87" t="s">
+        <v>18</v>
       </c>
       <c r="E87" t="s">
         <v>34</v>
@@ -5306,9 +4877,8 @@
       <c r="C88" t="s">
         <v>29</v>
       </c>
-      <c r="D88" t="str">
-        <f>VLOOKUP(B88,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D88" t="s">
+        <v>18</v>
       </c>
       <c r="E88" t="s">
         <v>34</v>
@@ -5348,9 +4918,8 @@
       <c r="C89" t="s">
         <v>26</v>
       </c>
-      <c r="D89" t="str">
-        <f>VLOOKUP(B89,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D89" t="s">
+        <v>69</v>
       </c>
       <c r="E89" t="s">
         <v>33</v>
@@ -5390,9 +4959,8 @@
       <c r="C90" t="s">
         <v>26</v>
       </c>
-      <c r="D90" t="str">
-        <f>VLOOKUP(B90,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D90" t="s">
+        <v>69</v>
       </c>
       <c r="E90" t="s">
         <v>33</v>
@@ -5432,9 +5000,8 @@
       <c r="C91" t="s">
         <v>26</v>
       </c>
-      <c r="D91" t="str">
-        <f>VLOOKUP(B91,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D91" t="s">
+        <v>69</v>
       </c>
       <c r="E91" t="s">
         <v>33</v>
@@ -5474,9 +5041,8 @@
       <c r="C92" t="s">
         <v>26</v>
       </c>
-      <c r="D92" t="str">
-        <f>VLOOKUP(B92,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D92" t="s">
+        <v>69</v>
       </c>
       <c r="E92" t="s">
         <v>33</v>
@@ -5516,9 +5082,8 @@
       <c r="C93" t="s">
         <v>30</v>
       </c>
-      <c r="D93" t="str">
-        <f>VLOOKUP(B93,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>FL</v>
+      <c r="D93" t="s">
+        <v>19</v>
       </c>
       <c r="E93" t="s">
         <v>35</v>
@@ -5558,9 +5123,8 @@
       <c r="C94" t="s">
         <v>27</v>
       </c>
-      <c r="D94" t="str">
-        <f>VLOOKUP(B94,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D94" t="s">
+        <v>70</v>
       </c>
       <c r="E94" t="s">
         <v>34</v>
@@ -5600,9 +5164,8 @@
       <c r="C95" t="s">
         <v>27</v>
       </c>
-      <c r="D95" t="str">
-        <f>VLOOKUP(B95,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D95" t="s">
+        <v>70</v>
       </c>
       <c r="E95" t="s">
         <v>34</v>
@@ -5642,9 +5205,8 @@
       <c r="C96" t="s">
         <v>27</v>
       </c>
-      <c r="D96" t="str">
-        <f>VLOOKUP(B96,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D96" t="s">
+        <v>70</v>
       </c>
       <c r="E96" t="s">
         <v>34</v>
@@ -5684,9 +5246,8 @@
       <c r="C97" t="s">
         <v>29</v>
       </c>
-      <c r="D97" t="str">
-        <f>VLOOKUP(B97,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D97" t="s">
+        <v>18</v>
       </c>
       <c r="E97" t="s">
         <v>34</v>
@@ -5729,9 +5290,8 @@
       <c r="C98" t="s">
         <v>29</v>
       </c>
-      <c r="D98" t="str">
-        <f>VLOOKUP(B98,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D98" t="s">
+        <v>18</v>
       </c>
       <c r="E98" t="s">
         <v>34</v>
@@ -5774,9 +5334,8 @@
       <c r="C99" t="s">
         <v>29</v>
       </c>
-      <c r="D99" t="str">
-        <f>VLOOKUP(B99,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D99" t="s">
+        <v>18</v>
       </c>
       <c r="E99" t="s">
         <v>34</v>
@@ -5819,9 +5378,8 @@
       <c r="C100" t="s">
         <v>29</v>
       </c>
-      <c r="D100" t="str">
-        <f>VLOOKUP(B100,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D100" t="s">
+        <v>18</v>
       </c>
       <c r="E100" t="s">
         <v>34</v>
@@ -5864,9 +5422,8 @@
       <c r="C101" t="s">
         <v>29</v>
       </c>
-      <c r="D101" t="str">
-        <f>VLOOKUP(B101,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D101" t="s">
+        <v>18</v>
       </c>
       <c r="E101" t="s">
         <v>34</v>
@@ -5909,9 +5466,8 @@
       <c r="C102" t="s">
         <v>29</v>
       </c>
-      <c r="D102" t="str">
-        <f>VLOOKUP(B102,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D102" t="s">
+        <v>18</v>
       </c>
       <c r="E102" t="s">
         <v>34</v>
@@ -5954,9 +5510,8 @@
       <c r="C103" t="s">
         <v>29</v>
       </c>
-      <c r="D103" t="str">
-        <f>VLOOKUP(B103,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D103" t="s">
+        <v>18</v>
       </c>
       <c r="E103" t="s">
         <v>34</v>
@@ -5999,9 +5554,8 @@
       <c r="C104" t="s">
         <v>29</v>
       </c>
-      <c r="D104" t="str">
-        <f>VLOOKUP(B104,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D104" t="s">
+        <v>18</v>
       </c>
       <c r="E104" t="s">
         <v>34</v>
@@ -6044,9 +5598,8 @@
       <c r="C105" t="s">
         <v>29</v>
       </c>
-      <c r="D105" t="str">
-        <f>VLOOKUP(B105,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D105" t="s">
+        <v>18</v>
       </c>
       <c r="E105" t="s">
         <v>34</v>
@@ -6089,9 +5642,8 @@
       <c r="C106" t="s">
         <v>29</v>
       </c>
-      <c r="D106" t="str">
-        <f>VLOOKUP(B106,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D106" t="s">
+        <v>18</v>
       </c>
       <c r="E106" t="s">
         <v>34</v>
@@ -6134,9 +5686,8 @@
       <c r="C107" t="s">
         <v>29</v>
       </c>
-      <c r="D107" t="str">
-        <f>VLOOKUP(B107,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D107" t="s">
+        <v>18</v>
       </c>
       <c r="E107" t="s">
         <v>34</v>
@@ -6179,9 +5730,8 @@
       <c r="C108" t="s">
         <v>29</v>
       </c>
-      <c r="D108" t="str">
-        <f>VLOOKUP(B108,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D108" t="s">
+        <v>18</v>
       </c>
       <c r="E108" t="s">
         <v>34</v>
@@ -6224,9 +5774,8 @@
       <c r="C109" t="s">
         <v>29</v>
       </c>
-      <c r="D109" t="str">
-        <f>VLOOKUP(B109,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D109" t="s">
+        <v>18</v>
       </c>
       <c r="E109" t="s">
         <v>34</v>
@@ -6269,9 +5818,8 @@
       <c r="C110" t="s">
         <v>29</v>
       </c>
-      <c r="D110" t="str">
-        <f>VLOOKUP(B110,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D110" t="s">
+        <v>18</v>
       </c>
       <c r="E110" t="s">
         <v>34</v>
@@ -6314,9 +5862,8 @@
       <c r="C111" t="s">
         <v>29</v>
       </c>
-      <c r="D111" t="str">
-        <f>VLOOKUP(B111,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D111" t="s">
+        <v>18</v>
       </c>
       <c r="E111" t="s">
         <v>34</v>
@@ -6359,9 +5906,8 @@
       <c r="C112" t="s">
         <v>29</v>
       </c>
-      <c r="D112" t="str">
-        <f>VLOOKUP(B112,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D112" t="s">
+        <v>18</v>
       </c>
       <c r="E112" t="s">
         <v>34</v>
@@ -6404,9 +5950,8 @@
       <c r="C113" t="s">
         <v>29</v>
       </c>
-      <c r="D113" t="str">
-        <f>VLOOKUP(B113,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D113" t="s">
+        <v>18</v>
       </c>
       <c r="E113" t="s">
         <v>34</v>
@@ -6449,9 +5994,8 @@
       <c r="C114" t="s">
         <v>29</v>
       </c>
-      <c r="D114" t="str">
-        <f>VLOOKUP(B114,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D114" t="s">
+        <v>18</v>
       </c>
       <c r="E114" t="s">
         <v>34</v>
@@ -6494,9 +6038,8 @@
       <c r="C115" t="s">
         <v>29</v>
       </c>
-      <c r="D115" t="str">
-        <f>VLOOKUP(B115,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D115" t="s">
+        <v>18</v>
       </c>
       <c r="E115" t="s">
         <v>34</v>
@@ -6539,9 +6082,8 @@
       <c r="C116" t="s">
         <v>29</v>
       </c>
-      <c r="D116" t="str">
-        <f>VLOOKUP(B116,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D116" t="s">
+        <v>18</v>
       </c>
       <c r="E116" t="s">
         <v>34</v>
@@ -6584,9 +6126,8 @@
       <c r="C117" t="s">
         <v>29</v>
       </c>
-      <c r="D117" t="str">
-        <f>VLOOKUP(B117,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D117" t="s">
+        <v>18</v>
       </c>
       <c r="E117" t="s">
         <v>34</v>
@@ -6629,9 +6170,8 @@
       <c r="C118" t="s">
         <v>29</v>
       </c>
-      <c r="D118" t="str">
-        <f>VLOOKUP(B118,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D118" t="s">
+        <v>18</v>
       </c>
       <c r="E118" t="s">
         <v>34</v>
@@ -6674,9 +6214,8 @@
       <c r="C119" t="s">
         <v>29</v>
       </c>
-      <c r="D119" t="str">
-        <f>VLOOKUP(B119,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D119" t="s">
+        <v>18</v>
       </c>
       <c r="E119" t="s">
         <v>34</v>
@@ -6719,9 +6258,8 @@
       <c r="C120" t="s">
         <v>29</v>
       </c>
-      <c r="D120" t="str">
-        <f>VLOOKUP(B120,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D120" t="s">
+        <v>18</v>
       </c>
       <c r="E120" t="s">
         <v>34</v>
@@ -6764,9 +6302,8 @@
       <c r="C121" t="s">
         <v>29</v>
       </c>
-      <c r="D121" t="str">
-        <f>VLOOKUP(B121,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D121" t="s">
+        <v>18</v>
       </c>
       <c r="E121" t="s">
         <v>34</v>
@@ -6809,9 +6346,8 @@
       <c r="C122" t="s">
         <v>29</v>
       </c>
-      <c r="D122" t="str">
-        <f>VLOOKUP(B122,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D122" t="s">
+        <v>18</v>
       </c>
       <c r="E122" t="s">
         <v>34</v>
@@ -6854,9 +6390,8 @@
       <c r="C123" t="s">
         <v>29</v>
       </c>
-      <c r="D123" t="str">
-        <f>VLOOKUP(B123,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D123" t="s">
+        <v>18</v>
       </c>
       <c r="E123" t="s">
         <v>34</v>
@@ -6896,9 +6431,8 @@
       <c r="C124" t="s">
         <v>26</v>
       </c>
-      <c r="D124" t="str">
-        <f>VLOOKUP(B124,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D124" t="s">
+        <v>69</v>
       </c>
       <c r="E124" t="s">
         <v>33</v>
@@ -6941,9 +6475,8 @@
       <c r="C125" t="s">
         <v>26</v>
       </c>
-      <c r="D125" t="str">
-        <f>VLOOKUP(B125,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D125" t="s">
+        <v>69</v>
       </c>
       <c r="E125" t="s">
         <v>33</v>
@@ -6986,9 +6519,8 @@
       <c r="C126" t="s">
         <v>26</v>
       </c>
-      <c r="D126" t="str">
-        <f>VLOOKUP(B126,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D126" t="s">
+        <v>69</v>
       </c>
       <c r="E126" t="s">
         <v>33</v>
@@ -7031,9 +6563,8 @@
       <c r="C127" t="s">
         <v>26</v>
       </c>
-      <c r="D127" t="str">
-        <f>VLOOKUP(B127,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D127" t="s">
+        <v>69</v>
       </c>
       <c r="E127" t="s">
         <v>33</v>
@@ -7076,9 +6607,8 @@
       <c r="C128" t="s">
         <v>26</v>
       </c>
-      <c r="D128" t="str">
-        <f>VLOOKUP(B128,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D128" t="s">
+        <v>69</v>
       </c>
       <c r="E128" t="s">
         <v>33</v>
@@ -7121,9 +6651,8 @@
       <c r="C129" t="s">
         <v>26</v>
       </c>
-      <c r="D129" t="str">
-        <f>VLOOKUP(B129,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D129" t="s">
+        <v>69</v>
       </c>
       <c r="E129" t="s">
         <v>33</v>
@@ -7166,9 +6695,8 @@
       <c r="C130" t="s">
         <v>26</v>
       </c>
-      <c r="D130" t="str">
-        <f>VLOOKUP(B130,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D130" t="s">
+        <v>69</v>
       </c>
       <c r="E130" t="s">
         <v>33</v>
@@ -7211,9 +6739,8 @@
       <c r="C131" t="s">
         <v>26</v>
       </c>
-      <c r="D131" t="str">
-        <f>VLOOKUP(B131,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D131" t="s">
+        <v>69</v>
       </c>
       <c r="E131" t="s">
         <v>33</v>
@@ -7256,9 +6783,8 @@
       <c r="C132" t="s">
         <v>26</v>
       </c>
-      <c r="D132" t="str">
-        <f>VLOOKUP(B132,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D132" t="s">
+        <v>69</v>
       </c>
       <c r="E132" t="s">
         <v>33</v>
@@ -7301,9 +6827,8 @@
       <c r="C133" t="s">
         <v>26</v>
       </c>
-      <c r="D133" t="str">
-        <f>VLOOKUP(B133,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D133" t="s">
+        <v>69</v>
       </c>
       <c r="E133" t="s">
         <v>33</v>
@@ -7346,9 +6871,8 @@
       <c r="C134" t="s">
         <v>26</v>
       </c>
-      <c r="D134" t="str">
-        <f>VLOOKUP(B134,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D134" t="s">
+        <v>69</v>
       </c>
       <c r="E134" t="s">
         <v>33</v>
@@ -7391,9 +6915,8 @@
       <c r="C135" t="s">
         <v>26</v>
       </c>
-      <c r="D135" t="str">
-        <f>VLOOKUP(B135,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D135" t="s">
+        <v>69</v>
       </c>
       <c r="E135" t="s">
         <v>33</v>
@@ -7436,9 +6959,8 @@
       <c r="C136" t="s">
         <v>26</v>
       </c>
-      <c r="D136" t="str">
-        <f>VLOOKUP(B136,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D136" t="s">
+        <v>69</v>
       </c>
       <c r="E136" t="s">
         <v>33</v>
@@ -7481,9 +7003,8 @@
       <c r="C137" t="s">
         <v>26</v>
       </c>
-      <c r="D137" t="str">
-        <f>VLOOKUP(B137,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D137" t="s">
+        <v>69</v>
       </c>
       <c r="E137" t="s">
         <v>33</v>
@@ -7526,9 +7047,8 @@
       <c r="C138" t="s">
         <v>26</v>
       </c>
-      <c r="D138" t="str">
-        <f>VLOOKUP(B138,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D138" t="s">
+        <v>69</v>
       </c>
       <c r="E138" t="s">
         <v>33</v>
@@ -7571,9 +7091,8 @@
       <c r="C139" t="s">
         <v>26</v>
       </c>
-      <c r="D139" t="str">
-        <f>VLOOKUP(B139,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D139" t="s">
+        <v>69</v>
       </c>
       <c r="E139" t="s">
         <v>33</v>
@@ -7616,9 +7135,8 @@
       <c r="C140" t="s">
         <v>26</v>
       </c>
-      <c r="D140" t="str">
-        <f>VLOOKUP(B140,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D140" t="s">
+        <v>69</v>
       </c>
       <c r="E140" t="s">
         <v>33</v>
@@ -7661,9 +7179,8 @@
       <c r="C141" t="s">
         <v>26</v>
       </c>
-      <c r="D141" t="str">
-        <f>VLOOKUP(B141,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D141" t="s">
+        <v>69</v>
       </c>
       <c r="E141" t="s">
         <v>33</v>
@@ -7706,9 +7223,8 @@
       <c r="C142" t="s">
         <v>26</v>
       </c>
-      <c r="D142" t="str">
-        <f>VLOOKUP(B142,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D142" t="s">
+        <v>69</v>
       </c>
       <c r="E142" t="s">
         <v>33</v>
@@ -7751,9 +7267,8 @@
       <c r="C143" t="s">
         <v>26</v>
       </c>
-      <c r="D143" t="str">
-        <f>VLOOKUP(B143,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D143" t="s">
+        <v>69</v>
       </c>
       <c r="E143" t="s">
         <v>33</v>
@@ -7796,9 +7311,8 @@
       <c r="C144" t="s">
         <v>26</v>
       </c>
-      <c r="D144" t="str">
-        <f>VLOOKUP(B144,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D144" t="s">
+        <v>69</v>
       </c>
       <c r="E144" t="s">
         <v>33</v>
@@ -7841,9 +7355,8 @@
       <c r="C145" t="s">
         <v>26</v>
       </c>
-      <c r="D145" t="str">
-        <f>VLOOKUP(B145,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D145" t="s">
+        <v>69</v>
       </c>
       <c r="E145" t="s">
         <v>33</v>
@@ -7886,9 +7399,8 @@
       <c r="C146" t="s">
         <v>26</v>
       </c>
-      <c r="D146" t="str">
-        <f>VLOOKUP(B146,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D146" t="s">
+        <v>69</v>
       </c>
       <c r="E146" t="s">
         <v>33</v>
@@ -7931,9 +7443,8 @@
       <c r="C147" t="s">
         <v>26</v>
       </c>
-      <c r="D147" t="str">
-        <f>VLOOKUP(B147,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D147" t="s">
+        <v>69</v>
       </c>
       <c r="E147" t="s">
         <v>33</v>
@@ -7976,9 +7487,8 @@
       <c r="C148" t="s">
         <v>26</v>
       </c>
-      <c r="D148" t="str">
-        <f>VLOOKUP(B148,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D148" t="s">
+        <v>69</v>
       </c>
       <c r="E148" t="s">
         <v>33</v>
@@ -8021,9 +7531,8 @@
       <c r="C149" t="s">
         <v>26</v>
       </c>
-      <c r="D149" t="str">
-        <f>VLOOKUP(B149,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D149" t="s">
+        <v>69</v>
       </c>
       <c r="E149" t="s">
         <v>33</v>
@@ -8066,9 +7575,8 @@
       <c r="C150" t="s">
         <v>26</v>
       </c>
-      <c r="D150" t="str">
-        <f>VLOOKUP(B150,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D150" t="s">
+        <v>69</v>
       </c>
       <c r="E150" t="s">
         <v>33</v>
@@ -8108,9 +7616,8 @@
       <c r="C151" t="s">
         <v>26</v>
       </c>
-      <c r="D151" t="str">
-        <f>VLOOKUP(B151,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D151" t="s">
+        <v>69</v>
       </c>
       <c r="E151" t="s">
         <v>33</v>
@@ -8153,9 +7660,8 @@
       <c r="C152" t="s">
         <v>26</v>
       </c>
-      <c r="D152" t="str">
-        <f>VLOOKUP(B152,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D152" t="s">
+        <v>69</v>
       </c>
       <c r="E152" t="s">
         <v>33</v>
@@ -8198,9 +7704,8 @@
       <c r="C153" t="s">
         <v>26</v>
       </c>
-      <c r="D153" t="str">
-        <f>VLOOKUP(B153,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D153" t="s">
+        <v>69</v>
       </c>
       <c r="E153" t="s">
         <v>33</v>
@@ -8243,9 +7748,8 @@
       <c r="C154" t="s">
         <v>26</v>
       </c>
-      <c r="D154" t="str">
-        <f>VLOOKUP(B154,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D154" t="s">
+        <v>69</v>
       </c>
       <c r="E154" t="s">
         <v>33</v>
@@ -8288,9 +7792,8 @@
       <c r="C155" t="s">
         <v>26</v>
       </c>
-      <c r="D155" t="str">
-        <f>VLOOKUP(B155,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D155" t="s">
+        <v>69</v>
       </c>
       <c r="E155" t="s">
         <v>33</v>
@@ -8333,9 +7836,8 @@
       <c r="C156" t="s">
         <v>26</v>
       </c>
-      <c r="D156" t="str">
-        <f>VLOOKUP(B156,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D156" t="s">
+        <v>69</v>
       </c>
       <c r="E156" t="s">
         <v>33</v>
@@ -8378,9 +7880,8 @@
       <c r="C157" t="s">
         <v>26</v>
       </c>
-      <c r="D157" t="str">
-        <f>VLOOKUP(B157,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D157" t="s">
+        <v>69</v>
       </c>
       <c r="E157" t="s">
         <v>33</v>
@@ -8423,9 +7924,8 @@
       <c r="C158" t="s">
         <v>26</v>
       </c>
-      <c r="D158" t="str">
-        <f>VLOOKUP(B158,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D158" t="s">
+        <v>69</v>
       </c>
       <c r="E158" t="s">
         <v>33</v>
@@ -8468,9 +7968,8 @@
       <c r="C159" t="s">
         <v>26</v>
       </c>
-      <c r="D159" t="str">
-        <f>VLOOKUP(B159,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D159" t="s">
+        <v>69</v>
       </c>
       <c r="E159" t="s">
         <v>33</v>
@@ -8513,9 +8012,8 @@
       <c r="C160" t="s">
         <v>26</v>
       </c>
-      <c r="D160" t="str">
-        <f>VLOOKUP(B160,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D160" t="s">
+        <v>69</v>
       </c>
       <c r="E160" t="s">
         <v>33</v>
@@ -8558,9 +8056,8 @@
       <c r="C161" t="s">
         <v>26</v>
       </c>
-      <c r="D161" t="str">
-        <f>VLOOKUP(B161,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D161" t="s">
+        <v>69</v>
       </c>
       <c r="E161" t="s">
         <v>33</v>
@@ -8603,9 +8100,8 @@
       <c r="C162" t="s">
         <v>26</v>
       </c>
-      <c r="D162" t="str">
-        <f>VLOOKUP(B162,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D162" t="s">
+        <v>69</v>
       </c>
       <c r="E162" t="s">
         <v>33</v>
@@ -8648,9 +8144,8 @@
       <c r="C163" t="s">
         <v>26</v>
       </c>
-      <c r="D163" t="str">
-        <f>VLOOKUP(B163,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D163" t="s">
+        <v>69</v>
       </c>
       <c r="E163" t="s">
         <v>33</v>
@@ -8693,9 +8188,8 @@
       <c r="C164" t="s">
         <v>26</v>
       </c>
-      <c r="D164" t="str">
-        <f>VLOOKUP(B164,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D164" t="s">
+        <v>69</v>
       </c>
       <c r="E164" t="s">
         <v>33</v>
@@ -8738,9 +8232,8 @@
       <c r="C165" t="s">
         <v>26</v>
       </c>
-      <c r="D165" t="str">
-        <f>VLOOKUP(B165,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D165" t="s">
+        <v>69</v>
       </c>
       <c r="E165" t="s">
         <v>33</v>
@@ -8783,9 +8276,8 @@
       <c r="C166" t="s">
         <v>26</v>
       </c>
-      <c r="D166" t="str">
-        <f>VLOOKUP(B166,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D166" t="s">
+        <v>69</v>
       </c>
       <c r="E166" t="s">
         <v>33</v>
@@ -8828,9 +8320,8 @@
       <c r="C167" t="s">
         <v>26</v>
       </c>
-      <c r="D167" t="str">
-        <f>VLOOKUP(B167,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D167" t="s">
+        <v>69</v>
       </c>
       <c r="E167" t="s">
         <v>33</v>
@@ -8873,9 +8364,8 @@
       <c r="C168" t="s">
         <v>26</v>
       </c>
-      <c r="D168" t="str">
-        <f>VLOOKUP(B168,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D168" t="s">
+        <v>69</v>
       </c>
       <c r="E168" t="s">
         <v>33</v>
@@ -8918,9 +8408,8 @@
       <c r="C169" t="s">
         <v>26</v>
       </c>
-      <c r="D169" t="str">
-        <f>VLOOKUP(B169,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D169" t="s">
+        <v>69</v>
       </c>
       <c r="E169" t="s">
         <v>33</v>
@@ -8963,9 +8452,8 @@
       <c r="C170" t="s">
         <v>26</v>
       </c>
-      <c r="D170" t="str">
-        <f>VLOOKUP(B170,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D170" t="s">
+        <v>69</v>
       </c>
       <c r="E170" t="s">
         <v>33</v>
@@ -9008,9 +8496,8 @@
       <c r="C171" t="s">
         <v>26</v>
       </c>
-      <c r="D171" t="str">
-        <f>VLOOKUP(B171,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D171" t="s">
+        <v>69</v>
       </c>
       <c r="E171" t="s">
         <v>33</v>
@@ -9053,9 +8540,8 @@
       <c r="C172" t="s">
         <v>26</v>
       </c>
-      <c r="D172" t="str">
-        <f>VLOOKUP(B172,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D172" t="s">
+        <v>69</v>
       </c>
       <c r="E172" t="s">
         <v>33</v>
@@ -9098,9 +8584,8 @@
       <c r="C173" t="s">
         <v>26</v>
       </c>
-      <c r="D173" t="str">
-        <f>VLOOKUP(B173,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D173" t="s">
+        <v>69</v>
       </c>
       <c r="E173" t="s">
         <v>33</v>
@@ -9143,9 +8628,8 @@
       <c r="C174" t="s">
         <v>26</v>
       </c>
-      <c r="D174" t="str">
-        <f>VLOOKUP(B174,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D174" t="s">
+        <v>69</v>
       </c>
       <c r="E174" t="s">
         <v>33</v>
@@ -9188,9 +8672,8 @@
       <c r="C175" t="s">
         <v>26</v>
       </c>
-      <c r="D175" t="str">
-        <f>VLOOKUP(B175,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D175" t="s">
+        <v>69</v>
       </c>
       <c r="E175" t="s">
         <v>33</v>
@@ -9233,9 +8716,8 @@
       <c r="C176" t="s">
         <v>26</v>
       </c>
-      <c r="D176" t="str">
-        <f>VLOOKUP(B176,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D176" t="s">
+        <v>69</v>
       </c>
       <c r="E176" t="s">
         <v>33</v>
@@ -9278,9 +8760,8 @@
       <c r="C177" t="s">
         <v>26</v>
       </c>
-      <c r="D177" t="str">
-        <f>VLOOKUP(B177,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D177" t="s">
+        <v>69</v>
       </c>
       <c r="E177" t="s">
         <v>33</v>
@@ -9320,9 +8801,8 @@
       <c r="C178" t="s">
         <v>27</v>
       </c>
-      <c r="D178" t="str">
-        <f>VLOOKUP(B178,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D178" t="s">
+        <v>70</v>
       </c>
       <c r="E178" t="s">
         <v>34</v>
@@ -9362,9 +8842,8 @@
       <c r="C179" t="s">
         <v>27</v>
       </c>
-      <c r="D179" t="str">
-        <f>VLOOKUP(B179,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>SC</v>
+      <c r="D179" t="s">
+        <v>70</v>
       </c>
       <c r="E179" t="s">
         <v>34</v>
@@ -9404,9 +8883,8 @@
       <c r="C180" t="s">
         <v>26</v>
       </c>
-      <c r="D180" t="str">
-        <f>VLOOKUP(B180,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D180" t="s">
+        <v>69</v>
       </c>
       <c r="E180" t="s">
         <v>33</v>
@@ -9449,9 +8927,8 @@
       <c r="C181" t="s">
         <v>26</v>
       </c>
-      <c r="D181" t="str">
-        <f>VLOOKUP(B181,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D181" t="s">
+        <v>69</v>
       </c>
       <c r="E181" t="s">
         <v>33</v>
@@ -9494,9 +8971,8 @@
       <c r="C182" t="s">
         <v>26</v>
       </c>
-      <c r="D182" t="str">
-        <f>VLOOKUP(B182,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D182" t="s">
+        <v>69</v>
       </c>
       <c r="E182" t="s">
         <v>33</v>
@@ -9539,9 +9015,8 @@
       <c r="C183" t="s">
         <v>26</v>
       </c>
-      <c r="D183" t="str">
-        <f>VLOOKUP(B183,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D183" t="s">
+        <v>69</v>
       </c>
       <c r="E183" t="s">
         <v>33</v>
@@ -9584,9 +9059,8 @@
       <c r="C184" t="s">
         <v>26</v>
       </c>
-      <c r="D184" t="str">
-        <f>VLOOKUP(B184,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D184" t="s">
+        <v>69</v>
       </c>
       <c r="E184" t="s">
         <v>33</v>
@@ -9629,9 +9103,8 @@
       <c r="C185" t="s">
         <v>26</v>
       </c>
-      <c r="D185" t="str">
-        <f>VLOOKUP(B185,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D185" t="s">
+        <v>69</v>
       </c>
       <c r="E185" t="s">
         <v>33</v>
@@ -9674,9 +9147,8 @@
       <c r="C186" t="s">
         <v>26</v>
       </c>
-      <c r="D186" t="str">
-        <f>VLOOKUP(B186,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D186" t="s">
+        <v>69</v>
       </c>
       <c r="E186" t="s">
         <v>33</v>
@@ -9719,9 +9191,8 @@
       <c r="C187" t="s">
         <v>26</v>
       </c>
-      <c r="D187" t="str">
-        <f>VLOOKUP(B187,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D187" t="s">
+        <v>69</v>
       </c>
       <c r="E187" t="s">
         <v>33</v>
@@ -9764,9 +9235,8 @@
       <c r="C188" t="s">
         <v>26</v>
       </c>
-      <c r="D188" t="str">
-        <f>VLOOKUP(B188,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D188" t="s">
+        <v>69</v>
       </c>
       <c r="E188" t="s">
         <v>33</v>
@@ -9809,9 +9279,8 @@
       <c r="C189" t="s">
         <v>26</v>
       </c>
-      <c r="D189" t="str">
-        <f>VLOOKUP(B189,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D189" t="s">
+        <v>69</v>
       </c>
       <c r="E189" t="s">
         <v>33</v>
@@ -9854,9 +9323,8 @@
       <c r="C190" t="s">
         <v>26</v>
       </c>
-      <c r="D190" t="str">
-        <f>VLOOKUP(B190,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D190" t="s">
+        <v>69</v>
       </c>
       <c r="E190" t="s">
         <v>33</v>
@@ -9899,9 +9367,8 @@
       <c r="C191" t="s">
         <v>26</v>
       </c>
-      <c r="D191" t="str">
-        <f>VLOOKUP(B191,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D191" t="s">
+        <v>69</v>
       </c>
       <c r="E191" t="s">
         <v>33</v>
@@ -9944,9 +9411,8 @@
       <c r="C192" t="s">
         <v>26</v>
       </c>
-      <c r="D192" t="str">
-        <f>VLOOKUP(B192,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D192" t="s">
+        <v>69</v>
       </c>
       <c r="E192" t="s">
         <v>33</v>
@@ -9989,9 +9455,8 @@
       <c r="C193" t="s">
         <v>26</v>
       </c>
-      <c r="D193" t="str">
-        <f>VLOOKUP(B193,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D193" t="s">
+        <v>69</v>
       </c>
       <c r="E193" t="s">
         <v>33</v>
@@ -10034,9 +9499,8 @@
       <c r="C194" t="s">
         <v>26</v>
       </c>
-      <c r="D194" t="str">
-        <f>VLOOKUP(B194,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D194" t="s">
+        <v>69</v>
       </c>
       <c r="E194" t="s">
         <v>33</v>
@@ -10079,9 +9543,8 @@
       <c r="C195" t="s">
         <v>26</v>
       </c>
-      <c r="D195" t="str">
-        <f>VLOOKUP(B195,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D195" t="s">
+        <v>69</v>
       </c>
       <c r="E195" t="s">
         <v>33</v>
@@ -10124,9 +9587,8 @@
       <c r="C196" t="s">
         <v>26</v>
       </c>
-      <c r="D196" t="str">
-        <f>VLOOKUP(B196,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D196" t="s">
+        <v>69</v>
       </c>
       <c r="E196" t="s">
         <v>33</v>
@@ -10169,9 +9631,8 @@
       <c r="C197" t="s">
         <v>26</v>
       </c>
-      <c r="D197" t="str">
-        <f>VLOOKUP(B197,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D197" t="s">
+        <v>69</v>
       </c>
       <c r="E197" t="s">
         <v>33</v>
@@ -10214,9 +9675,8 @@
       <c r="C198" t="s">
         <v>26</v>
       </c>
-      <c r="D198" t="str">
-        <f>VLOOKUP(B198,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D198" t="s">
+        <v>69</v>
       </c>
       <c r="E198" t="s">
         <v>33</v>
@@ -10259,9 +9719,8 @@
       <c r="C199" t="s">
         <v>26</v>
       </c>
-      <c r="D199" t="str">
-        <f>VLOOKUP(B199,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D199" t="s">
+        <v>69</v>
       </c>
       <c r="E199" t="s">
         <v>33</v>
@@ -10304,9 +9763,8 @@
       <c r="C200" t="s">
         <v>26</v>
       </c>
-      <c r="D200" t="str">
-        <f>VLOOKUP(B200,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D200" t="s">
+        <v>69</v>
       </c>
       <c r="E200" t="s">
         <v>33</v>
@@ -10349,9 +9807,8 @@
       <c r="C201" t="s">
         <v>26</v>
       </c>
-      <c r="D201" t="str">
-        <f>VLOOKUP(B201,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D201" t="s">
+        <v>69</v>
       </c>
       <c r="E201" t="s">
         <v>33</v>
@@ -10394,9 +9851,8 @@
       <c r="C202" t="s">
         <v>26</v>
       </c>
-      <c r="D202" t="str">
-        <f>VLOOKUP(B202,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D202" t="s">
+        <v>69</v>
       </c>
       <c r="E202" t="s">
         <v>33</v>
@@ -10439,9 +9895,8 @@
       <c r="C203" t="s">
         <v>26</v>
       </c>
-      <c r="D203" t="str">
-        <f>VLOOKUP(B203,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D203" t="s">
+        <v>69</v>
       </c>
       <c r="E203" t="s">
         <v>33</v>
@@ -10484,9 +9939,8 @@
       <c r="C204" t="s">
         <v>26</v>
       </c>
-      <c r="D204" t="str">
-        <f>VLOOKUP(B204,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D204" t="s">
+        <v>69</v>
       </c>
       <c r="E204" t="s">
         <v>33</v>
@@ -10529,9 +9983,8 @@
       <c r="C205" t="s">
         <v>26</v>
       </c>
-      <c r="D205" t="str">
-        <f>VLOOKUP(B205,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D205" t="s">
+        <v>69</v>
       </c>
       <c r="E205" t="s">
         <v>33</v>
@@ -10574,9 +10027,8 @@
       <c r="C206" t="s">
         <v>26</v>
       </c>
-      <c r="D206" t="str">
-        <f>VLOOKUP(B206,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D206" t="s">
+        <v>69</v>
       </c>
       <c r="E206" t="s">
         <v>33</v>
@@ -10616,9 +10068,8 @@
       <c r="C207" t="s">
         <v>29</v>
       </c>
-      <c r="D207" t="str">
-        <f>VLOOKUP(B207,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>CA</v>
+      <c r="D207" t="s">
+        <v>18</v>
       </c>
       <c r="E207" t="s">
         <v>34</v>
@@ -10658,9 +10109,8 @@
       <c r="C208" t="s">
         <v>26</v>
       </c>
-      <c r="D208" t="str">
-        <f>VLOOKUP(B208,'[1]FBA Locations'!$B:$D,3,FALSE)</f>
-        <v>NJ</v>
+      <c r="D208" t="s">
+        <v>69</v>
       </c>
       <c r="E208" t="s">
         <v>33</v>

--- a/Data/Last Mile Rates (no api).xlsx
+++ b/Data/Last Mile Rates (no api).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1508D6AE-0459-4FF3-BCED-F2B377D3F1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB78A8BC-0261-404D-8B33-78FE30D95F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{092089B2-8674-482C-97E7-5C8C072E36B4}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:O208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Last Mile Rates (no api).xlsx
+++ b/Data/Last Mile Rates (no api).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB78A8BC-0261-404D-8B33-78FE30D95F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B5E20B-0382-4917-8F2D-B8EB2B399EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{092089B2-8674-482C-97E7-5C8C072E36B4}"/>
   </bookViews>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10451EBB-E7E6-48DF-A4E4-B1A4C8B491EA}">
   <dimension ref="A1:O208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Last Mile Rates (no api).xlsx
+++ b/Data/Last Mile Rates (no api).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7FEB40-1758-4270-89C2-0FA7DD2C700D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC517D2-E107-4BE9-8CED-571A6D3DE3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{092089B2-8674-482C-97E7-5C8C072E36B4}"/>
   </bookViews>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10451EBB-E7E6-48DF-A4E4-B1A4C8B491EA}">
   <dimension ref="A1:R208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Last Mile Rates (no api).xlsx
+++ b/Data/Last Mile Rates (no api).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC517D2-E107-4BE9-8CED-571A6D3DE3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8C3DEF-D59D-4B8D-8B1B-B27E5B938CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{092089B2-8674-482C-97E7-5C8C072E36B4}"/>
   </bookViews>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:R208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>97</v>
+        <v>116.39999999999999</v>
       </c>
       <c r="Q2" s="3">
         <v>45870</v>
@@ -1303,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="O3">
-        <v>171</v>
+        <v>205.2</v>
       </c>
       <c r="Q3" s="3">
         <v>45870</v>
@@ -1356,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="O4">
-        <v>233</v>
+        <v>279.59999999999997</v>
       </c>
       <c r="Q4" s="3">
         <v>45870</v>
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="O5">
-        <v>307</v>
+        <v>368.4</v>
       </c>
       <c r="Q5" s="3">
         <v>45870</v>
@@ -1462,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="O6">
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="Q6" s="3">
         <v>45870</v>
@@ -1515,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="O7">
-        <v>451</v>
+        <v>541.19999999999993</v>
       </c>
       <c r="Q7" s="3">
         <v>45870</v>
@@ -1568,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="O8">
-        <v>521</v>
+        <v>625.19999999999993</v>
       </c>
       <c r="Q8" s="3">
         <v>45870</v>
@@ -1621,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="O9">
-        <v>589</v>
+        <v>706.8</v>
       </c>
       <c r="Q9" s="3">
         <v>45870</v>
@@ -1674,7 +1674,7 @@
         <v>9</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="3">
         <v>45870</v>
@@ -1727,7 +1727,7 @@
         <v>10</v>
       </c>
       <c r="O11">
-        <v>721</v>
+        <v>865.19999999999993</v>
       </c>
       <c r="Q11" s="3">
         <v>45870</v>
@@ -1780,7 +1780,7 @@
         <v>11</v>
       </c>
       <c r="O12">
-        <v>785</v>
+        <v>942</v>
       </c>
       <c r="Q12" s="3">
         <v>45870</v>
@@ -1833,7 +1833,7 @@
         <v>12</v>
       </c>
       <c r="O13">
-        <v>847</v>
+        <v>1016.4</v>
       </c>
       <c r="Q13" s="3">
         <v>45870</v>
@@ -1886,7 +1886,7 @@
         <v>13</v>
       </c>
       <c r="O14">
-        <v>907</v>
+        <v>1088.3999999999999</v>
       </c>
       <c r="Q14" s="3">
         <v>45870</v>
@@ -1939,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="O15">
-        <v>966</v>
+        <v>1159.2</v>
       </c>
       <c r="Q15" s="3">
         <v>45870</v>
@@ -1992,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="O16">
-        <v>1028</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="Q16" s="3">
         <v>45870</v>
@@ -2045,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="O17">
-        <v>1079</v>
+        <v>1294.8</v>
       </c>
       <c r="Q17" s="3">
         <v>45870</v>
@@ -2098,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="O18">
-        <v>1134</v>
+        <v>1360.8</v>
       </c>
       <c r="Q18" s="3">
         <v>45870</v>
@@ -2151,7 +2151,7 @@
         <v>18</v>
       </c>
       <c r="O19">
-        <v>1186</v>
+        <v>1423.2</v>
       </c>
       <c r="Q19" s="3">
         <v>45870</v>
@@ -2204,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="O20">
-        <v>1238</v>
+        <v>1485.6</v>
       </c>
       <c r="Q20" s="3">
         <v>45870</v>
@@ -2257,7 +2257,7 @@
         <v>20</v>
       </c>
       <c r="O21">
-        <v>1287</v>
+        <v>1544.3999999999999</v>
       </c>
       <c r="Q21" s="3">
         <v>45870</v>
@@ -2310,7 +2310,7 @@
         <v>21</v>
       </c>
       <c r="O22">
-        <v>1335</v>
+        <v>1602</v>
       </c>
       <c r="Q22" s="3">
         <v>45870</v>
@@ -2363,7 +2363,7 @@
         <v>22</v>
       </c>
       <c r="O23">
-        <v>1382</v>
+        <v>1658.3999999999999</v>
       </c>
       <c r="Q23" s="3">
         <v>45870</v>
@@ -2416,7 +2416,7 @@
         <v>23</v>
       </c>
       <c r="O24">
-        <v>1427</v>
+        <v>1712.3999999999999</v>
       </c>
       <c r="Q24" s="3">
         <v>45870</v>
@@ -2469,7 +2469,7 @@
         <v>24</v>
       </c>
       <c r="O25">
-        <v>1470</v>
+        <v>1764</v>
       </c>
       <c r="Q25" s="3">
         <v>45870</v>
@@ -2522,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="O26">
-        <v>1512</v>
+        <v>1814.3999999999999</v>
       </c>
       <c r="Q26" s="3">
         <v>45870</v>
@@ -2575,7 +2575,7 @@
         <v>26</v>
       </c>
       <c r="O27">
-        <v>1552</v>
+        <v>1862.3999999999999</v>
       </c>
       <c r="Q27" s="3">
         <v>45870</v>
@@ -2625,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="O28">
-        <v>908</v>
+        <v>1089.5999999999999</v>
       </c>
       <c r="Q28" s="3">
         <v>45870</v>
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>121</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="Q31" s="3">
         <v>45870</v>
@@ -2831,7 +2831,7 @@
         <v>2</v>
       </c>
       <c r="O32">
-        <v>213</v>
+        <v>255.6</v>
       </c>
       <c r="Q32" s="3">
         <v>45870</v>
@@ -2884,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="O33">
-        <v>291</v>
+        <v>349.2</v>
       </c>
       <c r="Q33" s="3">
         <v>45870</v>
@@ -2937,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="O34">
-        <v>384</v>
+        <v>460.79999999999995</v>
       </c>
       <c r="Q34" s="3">
         <v>45870</v>
@@ -2990,7 +2990,7 @@
         <v>5</v>
       </c>
       <c r="O35">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="Q35" s="3">
         <v>45870</v>
@@ -3043,7 +3043,7 @@
         <v>6</v>
       </c>
       <c r="O36">
-        <v>564</v>
+        <v>676.8</v>
       </c>
       <c r="Q36" s="3">
         <v>45870</v>
@@ -3096,7 +3096,7 @@
         <v>7</v>
       </c>
       <c r="O37">
-        <v>651</v>
+        <v>781.19999999999993</v>
       </c>
       <c r="Q37" s="3">
         <v>45870</v>
@@ -3149,7 +3149,7 @@
         <v>8</v>
       </c>
       <c r="O38">
-        <v>736</v>
+        <v>883.19999999999993</v>
       </c>
       <c r="Q38" s="3">
         <v>45870</v>
@@ -3202,7 +3202,7 @@
         <v>9</v>
       </c>
       <c r="O39">
-        <v>820</v>
+        <v>984</v>
       </c>
       <c r="Q39" s="3">
         <v>45870</v>
@@ -3255,7 +3255,7 @@
         <v>10</v>
       </c>
       <c r="O40">
-        <v>901</v>
+        <v>1081.2</v>
       </c>
       <c r="Q40" s="3">
         <v>45870</v>
@@ -3308,7 +3308,7 @@
         <v>11</v>
       </c>
       <c r="O41">
-        <v>981</v>
+        <v>1177.2</v>
       </c>
       <c r="Q41" s="3">
         <v>45870</v>
@@ -3361,7 +3361,7 @@
         <v>12</v>
       </c>
       <c r="O42">
-        <v>1058</v>
+        <v>1269.5999999999999</v>
       </c>
       <c r="Q42" s="3">
         <v>45870</v>
@@ -3414,7 +3414,7 @@
         <v>13</v>
       </c>
       <c r="O43">
-        <v>1134</v>
+        <v>1360.8</v>
       </c>
       <c r="Q43" s="3">
         <v>45870</v>
@@ -3467,7 +3467,7 @@
         <v>14</v>
       </c>
       <c r="O44">
-        <v>1207</v>
+        <v>1448.3999999999999</v>
       </c>
       <c r="Q44" s="3">
         <v>45870</v>
@@ -3520,7 +3520,7 @@
         <v>15</v>
       </c>
       <c r="O45">
-        <v>1279</v>
+        <v>1534.8</v>
       </c>
       <c r="Q45" s="3">
         <v>45870</v>
@@ -3573,7 +3573,7 @@
         <v>16</v>
       </c>
       <c r="O46">
-        <v>1349</v>
+        <v>1618.8</v>
       </c>
       <c r="Q46" s="3">
         <v>45870</v>
@@ -3626,7 +3626,7 @@
         <v>17</v>
       </c>
       <c r="O47">
-        <v>1417</v>
+        <v>1700.3999999999999</v>
       </c>
       <c r="Q47" s="3">
         <v>45870</v>
@@ -3679,7 +3679,7 @@
         <v>18</v>
       </c>
       <c r="O48">
-        <v>1483</v>
+        <v>1779.6</v>
       </c>
       <c r="Q48" s="3">
         <v>45870</v>
@@ -3732,7 +3732,7 @@
         <v>19</v>
       </c>
       <c r="O49">
-        <v>1546</v>
+        <v>1855.1999999999998</v>
       </c>
       <c r="Q49" s="3">
         <v>45870</v>
@@ -3785,7 +3785,7 @@
         <v>20</v>
       </c>
       <c r="O50">
-        <v>1608</v>
+        <v>1929.6</v>
       </c>
       <c r="Q50" s="3">
         <v>45870</v>
@@ -3838,7 +3838,7 @@
         <v>21</v>
       </c>
       <c r="O51">
-        <v>1669</v>
+        <v>2002.8</v>
       </c>
       <c r="Q51" s="3">
         <v>45870</v>
@@ -3891,7 +3891,7 @@
         <v>22</v>
       </c>
       <c r="O52">
-        <v>1727</v>
+        <v>2072.4</v>
       </c>
       <c r="Q52" s="3">
         <v>45870</v>
@@ -3944,7 +3944,7 @@
         <v>23</v>
       </c>
       <c r="O53">
-        <v>1783</v>
+        <v>2139.6</v>
       </c>
       <c r="Q53" s="3">
         <v>45870</v>
@@ -3997,7 +3997,7 @@
         <v>24</v>
       </c>
       <c r="O54">
-        <v>1837</v>
+        <v>2204.4</v>
       </c>
       <c r="Q54" s="3">
         <v>45870</v>
@@ -4050,7 +4050,7 @@
         <v>25</v>
       </c>
       <c r="O55">
-        <v>1889</v>
+        <v>2266.7999999999997</v>
       </c>
       <c r="Q55" s="3">
         <v>45870</v>
@@ -4103,7 +4103,7 @@
         <v>26</v>
       </c>
       <c r="O56">
-        <v>1940</v>
+        <v>2328</v>
       </c>
       <c r="Q56" s="3">
         <v>45870</v>
@@ -4153,7 +4153,7 @@
         <v>7</v>
       </c>
       <c r="O57">
-        <v>1993</v>
+        <v>2391.6</v>
       </c>
       <c r="Q57" s="3">
         <v>45870</v>
@@ -4353,7 +4353,7 @@
         <v>7</v>
       </c>
       <c r="O61">
-        <v>1384</v>
+        <v>1660.8</v>
       </c>
       <c r="Q61" s="3">
         <v>45870</v>
@@ -4503,7 +4503,7 @@
         <v>7</v>
       </c>
       <c r="O64">
-        <v>1274</v>
+        <v>1528.8</v>
       </c>
       <c r="Q64" s="3">
         <v>45870</v>
@@ -6156,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="O97">
-        <v>88</v>
+        <v>105.6</v>
       </c>
       <c r="Q97" s="3">
         <v>45870</v>
@@ -6209,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="O98">
-        <v>156</v>
+        <v>187.2</v>
       </c>
       <c r="Q98" s="3">
         <v>45870</v>
@@ -6262,7 +6262,7 @@
         <v>3</v>
       </c>
       <c r="O99">
-        <v>212</v>
+        <v>254.39999999999998</v>
       </c>
       <c r="Q99" s="3">
         <v>45870</v>
@@ -6315,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="O100">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="Q100" s="3">
         <v>45870</v>
@@ -6368,7 +6368,7 @@
         <v>5</v>
       </c>
       <c r="O101">
-        <v>347</v>
+        <v>416.4</v>
       </c>
       <c r="Q101" s="3">
         <v>45870</v>
@@ -6421,7 +6421,7 @@
         <v>6</v>
       </c>
       <c r="O102">
-        <v>412</v>
+        <v>494.4</v>
       </c>
       <c r="Q102" s="3">
         <v>45870</v>
@@ -6474,7 +6474,7 @@
         <v>7</v>
       </c>
       <c r="O103">
-        <v>476</v>
+        <v>571.19999999999993</v>
       </c>
       <c r="Q103" s="3">
         <v>45870</v>
@@ -6527,7 +6527,7 @@
         <v>8</v>
       </c>
       <c r="O104">
-        <v>538</v>
+        <v>645.6</v>
       </c>
       <c r="Q104" s="3">
         <v>45870</v>
@@ -6580,7 +6580,7 @@
         <v>9</v>
       </c>
       <c r="O105">
-        <v>599</v>
+        <v>718.8</v>
       </c>
       <c r="Q105" s="3">
         <v>45870</v>
@@ -6633,7 +6633,7 @@
         <v>10</v>
       </c>
       <c r="O106">
-        <v>658</v>
+        <v>789.6</v>
       </c>
       <c r="Q106" s="3">
         <v>45870</v>
@@ -6686,7 +6686,7 @@
         <v>11</v>
       </c>
       <c r="O107">
-        <v>716</v>
+        <v>859.19999999999993</v>
       </c>
       <c r="Q107" s="3">
         <v>45870</v>
@@ -6739,7 +6739,7 @@
         <v>12</v>
       </c>
       <c r="O108">
-        <v>773</v>
+        <v>927.59999999999991</v>
       </c>
       <c r="Q108" s="3">
         <v>45870</v>
@@ -6792,7 +6792,7 @@
         <v>13</v>
       </c>
       <c r="O109">
-        <v>828</v>
+        <v>993.59999999999991</v>
       </c>
       <c r="Q109" s="3">
         <v>45870</v>
@@ -6845,7 +6845,7 @@
         <v>14</v>
       </c>
       <c r="O110">
-        <v>882</v>
+        <v>1058.3999999999999</v>
       </c>
       <c r="Q110" s="3">
         <v>45870</v>
@@ -6898,7 +6898,7 @@
         <v>15</v>
       </c>
       <c r="O111">
-        <v>935</v>
+        <v>1122</v>
       </c>
       <c r="Q111" s="3">
         <v>45870</v>
@@ -6951,7 +6951,7 @@
         <v>16</v>
       </c>
       <c r="O112">
-        <v>985</v>
+        <v>1182</v>
       </c>
       <c r="Q112" s="3">
         <v>45870</v>
@@ -7004,7 +7004,7 @@
         <v>17</v>
       </c>
       <c r="O113">
-        <v>1035</v>
+        <v>1242</v>
       </c>
       <c r="Q113" s="3">
         <v>45870</v>
@@ -7057,7 +7057,7 @@
         <v>18</v>
       </c>
       <c r="O114">
-        <v>1083</v>
+        <v>1299.5999999999999</v>
       </c>
       <c r="Q114" s="3">
         <v>45870</v>
@@ -7110,7 +7110,7 @@
         <v>19</v>
       </c>
       <c r="O115">
-        <v>1130</v>
+        <v>1356</v>
       </c>
       <c r="Q115" s="3">
         <v>45870</v>
@@ -7163,7 +7163,7 @@
         <v>20</v>
       </c>
       <c r="O116">
-        <v>1175</v>
+        <v>1410</v>
       </c>
       <c r="Q116" s="3">
         <v>45870</v>
@@ -7216,7 +7216,7 @@
         <v>21</v>
       </c>
       <c r="O117">
-        <v>1219</v>
+        <v>1462.8</v>
       </c>
       <c r="Q117" s="3">
         <v>45870</v>
@@ -7269,7 +7269,7 @@
         <v>22</v>
       </c>
       <c r="O118">
-        <v>1262</v>
+        <v>1514.3999999999999</v>
       </c>
       <c r="Q118" s="3">
         <v>45870</v>
@@ -7322,7 +7322,7 @@
         <v>23</v>
       </c>
       <c r="O119">
-        <v>1303</v>
+        <v>1563.6</v>
       </c>
       <c r="Q119" s="3">
         <v>45870</v>
@@ -7375,7 +7375,7 @@
         <v>24</v>
       </c>
       <c r="O120">
-        <v>1342</v>
+        <v>1610.3999999999999</v>
       </c>
       <c r="Q120" s="3">
         <v>45870</v>
@@ -7428,7 +7428,7 @@
         <v>25</v>
       </c>
       <c r="O121">
-        <v>1381</v>
+        <v>1657.2</v>
       </c>
       <c r="Q121" s="3">
         <v>45870</v>
@@ -7481,7 +7481,7 @@
         <v>26</v>
       </c>
       <c r="O122">
-        <v>1417</v>
+        <v>1700.3999999999999</v>
       </c>
       <c r="Q122" s="3">
         <v>45870</v>
@@ -7531,7 +7531,7 @@
         <v>7</v>
       </c>
       <c r="O123">
-        <v>1119</v>
+        <v>1342.8</v>
       </c>
       <c r="Q123" s="3">
         <v>45870</v>
@@ -7584,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="O124">
-        <v>102</v>
+        <v>122.39999999999999</v>
       </c>
       <c r="Q124" s="3">
         <v>45870</v>
@@ -7637,7 +7637,7 @@
         <v>2</v>
       </c>
       <c r="O125">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="Q125" s="3">
         <v>45870</v>
@@ -7690,7 +7690,7 @@
         <v>3</v>
       </c>
       <c r="O126">
-        <v>246</v>
+        <v>295.2</v>
       </c>
       <c r="Q126" s="3">
         <v>45870</v>
@@ -7743,7 +7743,7 @@
         <v>4</v>
       </c>
       <c r="O127">
-        <v>324</v>
+        <v>388.8</v>
       </c>
       <c r="Q127" s="3">
         <v>45870</v>
@@ -7796,7 +7796,7 @@
         <v>5</v>
       </c>
       <c r="O128">
-        <v>401</v>
+        <v>481.2</v>
       </c>
       <c r="Q128" s="3">
         <v>45870</v>
@@ -7849,7 +7849,7 @@
         <v>6</v>
       </c>
       <c r="O129">
-        <v>477</v>
+        <v>572.4</v>
       </c>
       <c r="Q129" s="3">
         <v>45870</v>
@@ -7902,7 +7902,7 @@
         <v>7</v>
       </c>
       <c r="O130">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="Q130" s="3">
         <v>45870</v>
@@ -7955,7 +7955,7 @@
         <v>8</v>
       </c>
       <c r="O131">
-        <v>622</v>
+        <v>746.4</v>
       </c>
       <c r="Q131" s="3">
         <v>45870</v>
@@ -8008,7 +8008,7 @@
         <v>9</v>
       </c>
       <c r="O132">
-        <v>693</v>
+        <v>831.6</v>
       </c>
       <c r="Q132" s="3">
         <v>45870</v>
@@ -8061,7 +8061,7 @@
         <v>10</v>
       </c>
       <c r="O133">
-        <v>762</v>
+        <v>914.4</v>
       </c>
       <c r="Q133" s="3">
         <v>45870</v>
@@ -8114,7 +8114,7 @@
         <v>11</v>
       </c>
       <c r="O134">
-        <v>829</v>
+        <v>994.8</v>
       </c>
       <c r="Q134" s="3">
         <v>45870</v>
@@ -8167,7 +8167,7 @@
         <v>12</v>
       </c>
       <c r="O135">
-        <v>894</v>
+        <v>1072.8</v>
       </c>
       <c r="Q135" s="3">
         <v>45870</v>
@@ -8220,7 +8220,7 @@
         <v>13</v>
       </c>
       <c r="O136">
-        <v>958</v>
+        <v>1149.5999999999999</v>
       </c>
       <c r="Q136" s="3">
         <v>45870</v>
@@ -8273,7 +8273,7 @@
         <v>14</v>
       </c>
       <c r="O137">
-        <v>1020</v>
+        <v>1224</v>
       </c>
       <c r="Q137" s="3">
         <v>45870</v>
@@ -8326,7 +8326,7 @@
         <v>15</v>
       </c>
       <c r="O138">
-        <v>1081</v>
+        <v>1297.2</v>
       </c>
       <c r="Q138" s="3">
         <v>45870</v>
@@ -8379,7 +8379,7 @@
         <v>16</v>
       </c>
       <c r="O139">
-        <v>1140</v>
+        <v>1368</v>
       </c>
       <c r="Q139" s="3">
         <v>45870</v>
@@ -8432,7 +8432,7 @@
         <v>17</v>
       </c>
       <c r="O140">
-        <v>1197</v>
+        <v>1436.3999999999999</v>
       </c>
       <c r="Q140" s="3">
         <v>45870</v>
@@ -8485,7 +8485,7 @@
         <v>18</v>
       </c>
       <c r="O141">
-        <v>1253</v>
+        <v>1503.6</v>
       </c>
       <c r="Q141" s="3">
         <v>45870</v>
@@ -8538,7 +8538,7 @@
         <v>19</v>
       </c>
       <c r="O142">
-        <v>1307</v>
+        <v>1568.3999999999999</v>
       </c>
       <c r="Q142" s="3">
         <v>45870</v>
@@ -8591,7 +8591,7 @@
         <v>20</v>
       </c>
       <c r="O143">
-        <v>1359</v>
+        <v>1630.8</v>
       </c>
       <c r="Q143" s="3">
         <v>45870</v>
@@ -8644,7 +8644,7 @@
         <v>21</v>
       </c>
       <c r="O144">
-        <v>1410</v>
+        <v>1692</v>
       </c>
       <c r="Q144" s="3">
         <v>45870</v>
@@ -8697,7 +8697,7 @@
         <v>22</v>
       </c>
       <c r="O145">
-        <v>1459</v>
+        <v>1750.8</v>
       </c>
       <c r="Q145" s="3">
         <v>45870</v>
@@ -8750,7 +8750,7 @@
         <v>23</v>
       </c>
       <c r="O146">
-        <v>1507</v>
+        <v>1808.3999999999999</v>
       </c>
       <c r="Q146" s="3">
         <v>45870</v>
@@ -8803,7 +8803,7 @@
         <v>24</v>
       </c>
       <c r="O147">
-        <v>1553</v>
+        <v>1863.6</v>
       </c>
       <c r="Q147" s="3">
         <v>45870</v>
@@ -8856,7 +8856,7 @@
         <v>25</v>
       </c>
       <c r="O148">
-        <v>1597</v>
+        <v>1916.3999999999999</v>
       </c>
       <c r="Q148" s="3">
         <v>45870</v>
@@ -8909,7 +8909,7 @@
         <v>26</v>
       </c>
       <c r="O149">
-        <v>1639</v>
+        <v>1966.8</v>
       </c>
       <c r="Q149" s="3">
         <v>45870</v>
@@ -8959,7 +8959,7 @@
         <v>7</v>
       </c>
       <c r="O150">
-        <v>1222</v>
+        <v>1466.3999999999999</v>
       </c>
       <c r="Q150" s="3">
         <v>45870</v>
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="O151">
-        <v>97</v>
+        <v>116.39999999999999</v>
       </c>
       <c r="Q151" s="3">
         <v>45870</v>
@@ -9065,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="O152">
-        <v>171</v>
+        <v>205.2</v>
       </c>
       <c r="Q152" s="3">
         <v>45870</v>
@@ -9118,7 +9118,7 @@
         <v>3</v>
       </c>
       <c r="O153">
-        <v>234</v>
+        <v>280.8</v>
       </c>
       <c r="Q153" s="3">
         <v>45870</v>
@@ -9171,7 +9171,7 @@
         <v>4</v>
       </c>
       <c r="O154">
-        <v>308</v>
+        <v>369.59999999999997</v>
       </c>
       <c r="Q154" s="3">
         <v>45870</v>
@@ -9224,7 +9224,7 @@
         <v>5</v>
       </c>
       <c r="O155">
-        <v>382</v>
+        <v>458.4</v>
       </c>
       <c r="Q155" s="3">
         <v>45870</v>
@@ -9277,7 +9277,7 @@
         <v>6</v>
       </c>
       <c r="O156">
-        <v>453</v>
+        <v>543.6</v>
       </c>
       <c r="Q156" s="3">
         <v>45870</v>
@@ -9330,7 +9330,7 @@
         <v>7</v>
       </c>
       <c r="O157">
-        <v>523</v>
+        <v>627.6</v>
       </c>
       <c r="Q157" s="3">
         <v>45870</v>
@@ -9383,7 +9383,7 @@
         <v>8</v>
       </c>
       <c r="O158">
-        <v>592</v>
+        <v>710.4</v>
       </c>
       <c r="Q158" s="3">
         <v>45870</v>
@@ -9436,7 +9436,7 @@
         <v>9</v>
       </c>
       <c r="O159">
-        <v>659</v>
+        <v>790.8</v>
       </c>
       <c r="Q159" s="3">
         <v>45870</v>
@@ -9489,7 +9489,7 @@
         <v>10</v>
       </c>
       <c r="O160">
-        <v>724</v>
+        <v>868.8</v>
       </c>
       <c r="Q160" s="3">
         <v>45870</v>
@@ -9542,7 +9542,7 @@
         <v>11</v>
       </c>
       <c r="O161">
-        <v>788</v>
+        <v>945.59999999999991</v>
       </c>
       <c r="Q161" s="3">
         <v>45870</v>
@@ -9595,7 +9595,7 @@
         <v>12</v>
       </c>
       <c r="O162">
-        <v>851</v>
+        <v>1021.1999999999999</v>
       </c>
       <c r="Q162" s="3">
         <v>45870</v>
@@ -9648,7 +9648,7 @@
         <v>13</v>
       </c>
       <c r="O163">
-        <v>911</v>
+        <v>1093.2</v>
       </c>
       <c r="Q163" s="3">
         <v>45870</v>
@@ -9701,7 +9701,7 @@
         <v>14</v>
       </c>
       <c r="O164">
-        <v>971</v>
+        <v>1165.2</v>
       </c>
       <c r="Q164" s="3">
         <v>45870</v>
@@ -9754,7 +9754,7 @@
         <v>15</v>
       </c>
       <c r="O165">
-        <v>1028</v>
+        <v>1233.5999999999999</v>
       </c>
       <c r="Q165" s="3">
         <v>45870</v>
@@ -9807,7 +9807,7 @@
         <v>16</v>
       </c>
       <c r="O166">
-        <v>1084</v>
+        <v>1300.8</v>
       </c>
       <c r="Q166" s="3">
         <v>45870</v>
@@ -9860,7 +9860,7 @@
         <v>17</v>
       </c>
       <c r="O167">
-        <v>1139</v>
+        <v>1366.8</v>
       </c>
       <c r="Q167" s="3">
         <v>45870</v>
@@ -9913,7 +9913,7 @@
         <v>18</v>
       </c>
       <c r="O168">
-        <v>1192</v>
+        <v>1430.3999999999999</v>
       </c>
       <c r="Q168" s="3">
         <v>45870</v>
@@ -9966,7 +9966,7 @@
         <v>19</v>
       </c>
       <c r="O169">
-        <v>1243</v>
+        <v>1491.6</v>
       </c>
       <c r="Q169" s="3">
         <v>45870</v>
@@ -10019,7 +10019,7 @@
         <v>20</v>
       </c>
       <c r="O170">
-        <v>1293</v>
+        <v>1551.6</v>
       </c>
       <c r="Q170" s="3">
         <v>45870</v>
@@ -10072,7 +10072,7 @@
         <v>21</v>
       </c>
       <c r="O171">
-        <v>1341</v>
+        <v>1609.2</v>
       </c>
       <c r="Q171" s="3">
         <v>45870</v>
@@ -10125,7 +10125,7 @@
         <v>22</v>
       </c>
       <c r="O172">
-        <v>1388</v>
+        <v>1665.6</v>
       </c>
       <c r="Q172" s="3">
         <v>45870</v>
@@ -10178,7 +10178,7 @@
         <v>23</v>
       </c>
       <c r="O173">
-        <v>1433</v>
+        <v>1719.6</v>
       </c>
       <c r="Q173" s="3">
         <v>45870</v>
@@ -10231,7 +10231,7 @@
         <v>24</v>
       </c>
       <c r="O174">
-        <v>1477</v>
+        <v>1772.3999999999999</v>
       </c>
       <c r="Q174" s="3">
         <v>45870</v>
@@ -10284,7 +10284,7 @@
         <v>25</v>
       </c>
       <c r="O175">
-        <v>1519</v>
+        <v>1822.8</v>
       </c>
       <c r="Q175" s="3">
         <v>45870</v>
@@ -10337,7 +10337,7 @@
         <v>26</v>
       </c>
       <c r="O176">
-        <v>1559</v>
+        <v>1870.8</v>
       </c>
       <c r="Q176" s="3">
         <v>45870</v>
@@ -10387,7 +10387,7 @@
         <v>7</v>
       </c>
       <c r="O177">
-        <v>929</v>
+        <v>1114.8</v>
       </c>
       <c r="Q177" s="3">
         <v>45870</v>
@@ -10437,7 +10437,7 @@
         <v>7</v>
       </c>
       <c r="O178">
-        <v>4474</v>
+        <v>5368.8</v>
       </c>
       <c r="Q178" s="3">
         <v>45870</v>
@@ -10487,7 +10487,7 @@
         <v>7</v>
       </c>
       <c r="O179">
-        <v>5798</v>
+        <v>6957.5999999999995</v>
       </c>
       <c r="Q179" s="3">
         <v>45870</v>
@@ -10540,7 +10540,7 @@
         <v>1</v>
       </c>
       <c r="O180">
-        <v>117</v>
+        <v>140.4</v>
       </c>
       <c r="Q180" s="3">
         <v>45870</v>
@@ -10593,7 +10593,7 @@
         <v>2</v>
       </c>
       <c r="O181">
-        <v>207</v>
+        <v>248.39999999999998</v>
       </c>
       <c r="Q181" s="3">
         <v>45870</v>
@@ -10646,7 +10646,7 @@
         <v>3</v>
       </c>
       <c r="O182">
-        <v>282</v>
+        <v>338.4</v>
       </c>
       <c r="Q182" s="3">
         <v>45870</v>
@@ -10699,7 +10699,7 @@
         <v>4</v>
       </c>
       <c r="O183">
-        <v>372</v>
+        <v>446.4</v>
       </c>
       <c r="Q183" s="3">
         <v>45870</v>
@@ -10752,7 +10752,7 @@
         <v>5</v>
       </c>
       <c r="O184">
-        <v>460</v>
+        <v>552</v>
       </c>
       <c r="Q184" s="3">
         <v>45870</v>
@@ -10805,7 +10805,7 @@
         <v>6</v>
       </c>
       <c r="O185">
-        <v>547</v>
+        <v>656.4</v>
       </c>
       <c r="Q185" s="3">
         <v>45870</v>
@@ -10858,7 +10858,7 @@
         <v>7</v>
       </c>
       <c r="O186">
-        <v>631</v>
+        <v>757.19999999999993</v>
       </c>
       <c r="Q186" s="3">
         <v>45870</v>
@@ -10911,7 +10911,7 @@
         <v>8</v>
       </c>
       <c r="O187">
-        <v>714</v>
+        <v>856.8</v>
       </c>
       <c r="Q187" s="3">
         <v>45870</v>
@@ -10964,7 +10964,7 @@
         <v>9</v>
       </c>
       <c r="O188">
-        <v>795</v>
+        <v>954</v>
       </c>
       <c r="Q188" s="3">
         <v>45870</v>
@@ -11017,7 +11017,7 @@
         <v>10</v>
       </c>
       <c r="O189">
-        <v>874</v>
+        <v>1048.8</v>
       </c>
       <c r="Q189" s="3">
         <v>45870</v>
@@ -11070,7 +11070,7 @@
         <v>11</v>
       </c>
       <c r="O190">
-        <v>951</v>
+        <v>1141.2</v>
       </c>
       <c r="Q190" s="3">
         <v>45870</v>
@@ -11123,7 +11123,7 @@
         <v>12</v>
       </c>
       <c r="O191">
-        <v>1026</v>
+        <v>1231.2</v>
       </c>
       <c r="Q191" s="3">
         <v>45870</v>
@@ -11176,7 +11176,7 @@
         <v>13</v>
       </c>
       <c r="O192">
-        <v>1099</v>
+        <v>1318.8</v>
       </c>
       <c r="Q192" s="3">
         <v>45870</v>
@@ -11229,7 +11229,7 @@
         <v>14</v>
       </c>
       <c r="O193">
-        <v>1171</v>
+        <v>1405.2</v>
       </c>
       <c r="Q193" s="3">
         <v>45870</v>
@@ -11282,7 +11282,7 @@
         <v>15</v>
       </c>
       <c r="O194">
-        <v>1240</v>
+        <v>1488</v>
       </c>
       <c r="Q194" s="3">
         <v>45870</v>
@@ -11335,7 +11335,7 @@
         <v>16</v>
       </c>
       <c r="O195">
-        <v>1308</v>
+        <v>1569.6</v>
       </c>
       <c r="Q195" s="3">
         <v>45870</v>
@@ -11388,7 +11388,7 @@
         <v>17</v>
       </c>
       <c r="O196">
-        <v>1373</v>
+        <v>1647.6</v>
       </c>
       <c r="Q196" s="3">
         <v>45870</v>
@@ -11441,7 +11441,7 @@
         <v>18</v>
       </c>
       <c r="O197">
-        <v>1437</v>
+        <v>1724.3999999999999</v>
       </c>
       <c r="Q197" s="3">
         <v>45870</v>
@@ -11494,7 +11494,7 @@
         <v>19</v>
       </c>
       <c r="O198">
-        <v>1499</v>
+        <v>1798.8</v>
       </c>
       <c r="Q198" s="3">
         <v>45870</v>
@@ -11547,7 +11547,7 @@
         <v>20</v>
       </c>
       <c r="O199">
-        <v>1599</v>
+        <v>1918.8</v>
       </c>
       <c r="Q199" s="3">
         <v>45870</v>
@@ -11600,7 +11600,7 @@
         <v>21</v>
       </c>
       <c r="O200">
-        <v>1618</v>
+        <v>1941.6</v>
       </c>
       <c r="Q200" s="3">
         <v>45870</v>
@@ -11653,7 +11653,7 @@
         <v>22</v>
       </c>
       <c r="O201">
-        <v>1674</v>
+        <v>2008.8</v>
       </c>
       <c r="Q201" s="3">
         <v>45870</v>
@@ -11706,7 +11706,7 @@
         <v>23</v>
       </c>
       <c r="O202">
-        <v>1729</v>
+        <v>2074.7999999999997</v>
       </c>
       <c r="Q202" s="3">
         <v>45870</v>
@@ -11759,7 +11759,7 @@
         <v>24</v>
       </c>
       <c r="O203">
-        <v>1781</v>
+        <v>2137.1999999999998</v>
       </c>
       <c r="Q203" s="3">
         <v>45870</v>
@@ -11812,7 +11812,7 @@
         <v>25</v>
       </c>
       <c r="O204">
-        <v>1832</v>
+        <v>2198.4</v>
       </c>
       <c r="Q204" s="3">
         <v>45870</v>
@@ -11865,7 +11865,7 @@
         <v>26</v>
       </c>
       <c r="O205">
-        <v>1881</v>
+        <v>2257.1999999999998</v>
       </c>
       <c r="Q205" s="3">
         <v>45870</v>
@@ -11915,7 +11915,7 @@
         <v>7</v>
       </c>
       <c r="O206">
-        <v>1996</v>
+        <v>2395.1999999999998</v>
       </c>
       <c r="Q206" s="3">
         <v>45870</v>
@@ -11965,7 +11965,7 @@
         <v>7</v>
       </c>
       <c r="O207">
-        <v>1955</v>
+        <v>2346</v>
       </c>
       <c r="Q207" s="3">
         <v>45870</v>
@@ -12015,7 +12015,7 @@
         <v>7</v>
       </c>
       <c r="O208">
-        <v>1545</v>
+        <v>1854</v>
       </c>
       <c r="Q208" s="3">
         <v>45870</v>
